--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2611810.9157116</v>
+        <v>2670472.694325729</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4958106.997290292</v>
+        <v>5019462.767819408</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>361.0423675600759</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.04536329337098</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559667</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>301.0908484151731</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
         <v>94.13938596491228</v>
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.4594889613502</v>
       </c>
       <c r="U7" t="n">
-        <v>100.176219543324</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>327.7904349358024</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>122.0162283633512</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1376,10 +1376,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>141.7368267265315</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7884964950066</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.34780583513874</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>146.473498900785</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,10 +1825,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>234.1486472602376</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225779</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.55329631630718</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735226561</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580656</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664178</v>
+        <v>433.7610480884099</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553068</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728912</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892228</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600831</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435186</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210839</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644893</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.46417754135</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107836</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968878</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929902</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353362</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>112.335515884114</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475783</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570397</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580651</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664178</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553068</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728912</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892228</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600831</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435186</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210839</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644893</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.46417754135</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>120.7727981929626</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107836</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968878</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929902</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353362</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174326</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475783</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570397</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580656</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664178</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.8116020553068</v>
+        <v>431.5506869772984</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>213.2257698621414</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892228</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435186</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.0678151210839</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644893</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.46417754135</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>23.80497959279128</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107836</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225346</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353362</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174326</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475783</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570397</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>131.5973191913073</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664178</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553068</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728912</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892228</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600831</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435186</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210839</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644893</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.46417754135</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>89.78153366753661</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968878</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9098700929902</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353362</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174326</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262808</v>
+        <v>214.3693806674597</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475783</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570397</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>1639.564097387153</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1605.46202861098</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1176.880354348248</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>748.2986800855164</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1681.986093420447</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1681.986093420447</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1681.986093420447</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1681.986093420447</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1681.171042871884</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1666.068983491599</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>1661.823263831656</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4486,49 +4486,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
         <v>33.94366860160834</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1786.126818664106</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>1347.98434584753</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>912.0745610219742</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>478.2998161802694</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2520.804278925293</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2216.672108808957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1808.38598510861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3833729168607</v>
+        <v>900.9284236664084</v>
       </c>
       <c r="C7" t="n">
-        <v>199.8216614000857</v>
+        <v>728.3667121496334</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>562.4887193511561</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>392.7307156018933</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>216.0236615636495</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>266.2978593068819</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>684.5077410748429</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1143.991608255756</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2402.973381028048</v>
       </c>
       <c r="U7" t="n">
-        <v>1595.995329531605</v>
+        <v>2124.540380281153</v>
       </c>
       <c r="V7" t="n">
-        <v>1309.039821402036</v>
+        <v>1837.584872151583</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.013416988327</v>
+        <v>1565.558467737875</v>
       </c>
       <c r="X7" t="n">
-        <v>791.6216623217397</v>
+        <v>1320.166713071287</v>
       </c>
       <c r="Y7" t="n">
-        <v>564.2019916358479</v>
+        <v>1092.747042385396</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.179759784392</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.31037899924</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.39009218466</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>492.828380667885</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>326.9503878694077</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1923841201449</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1923841201449</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>343.2209805328789</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.201517537139</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>892.8097628705518</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.39009218466</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2232.363075206152</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1794.220602389576</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1358.31081756402</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282467</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515105</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.74689019472687</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.484587889524</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4795.983373848119</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093344</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277181</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4512.785940150219</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4253.563637467236</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3890.946687401062</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3486.091232812096</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3066.948769391407</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2658.66264569106</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>943.6474856468546</v>
+        <v>811.7546776883951</v>
       </c>
       <c r="C13" t="n">
-        <v>771.0857741300797</v>
+        <v>639.19296617162</v>
       </c>
       <c r="D13" t="n">
-        <v>605.2077813316023</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="E13" t="n">
-        <v>435.4497775823396</v>
+        <v>303.55696962388</v>
       </c>
       <c r="F13" t="n">
-        <v>258.7427235440958</v>
+        <v>303.55696962388</v>
       </c>
       <c r="G13" t="n">
-        <v>96.33010082186688</v>
+        <v>137.9656946497076</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186688</v>
+        <v>137.9656946497076</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.840525435473</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576923</v>
+        <v>463.5989800066087</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745697</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.571889430038</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2691.571889430038</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T13" t="n">
-        <v>2445.692443008494</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.259442261599</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.30393413203</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.277529718321</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X13" t="n">
-        <v>1362.885775051734</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.466104365842</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2232.363075206152</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.41004601344</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.500261187884</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.725516346179</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>786.8580867553867</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.4602553786506</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>96.33010082186688</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>96.33010082186688</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>96.33010082186688</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>96.33010082186688</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.377936032418</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2379.108919468865</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3359.288586039171</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4187.598460872568</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4734.097246831162</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093344</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4732.853167277181</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4512.785940150219</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4253.563637467236</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.946687401062</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3486.091232812096</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3066.948769391407</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2658.66264569106</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.8261378987982</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>774.2644263820232</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>608.3864335835456</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>438.628429834283</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>261.9213757960392</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>96.33010082186688</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.750541681982</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.871095260437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.438094513543</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.482586383973</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.456181970265</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.064427303677</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.644756617785</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5525,13 +5525,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5540,25 +5540,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309359</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324586</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,34 +5759,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5829,7 +5829,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5887,16 +5887,16 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5908,7 +5908,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K22" t="n">
         <v>463.598980006605</v>
@@ -5944,7 +5944,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
         <v>1617.386921419177</v>
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6169,25 +6169,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
         <v>1144.575496066698</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6394,19 +6394,19 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113132</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338913</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309255</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173587</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173587</v>
       </c>
       <c r="S28" t="n">
         <v>2700.681281130895</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995627</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625508</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246409</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851162</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068277</v>
+        <v>793.2056155771584</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765492</v>
+        <v>391.8077842004223</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662231</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2548.949291195803</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195803</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.12895776611</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599505</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.9376185581</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311157</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941452</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260948</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024422</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837041</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136694</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941582</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266807</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>998.3282046251866</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>828.533245554869</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>665.4220052028493</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>498.4307539000442</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>324.490452308258</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G37" t="n">
-        <v>324.490452308258</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3550304450902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.144937388329</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170988</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214103</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151209</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.163927303037</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2564.689311047492</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2321.576617072404</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.106399007643</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1923.917643324531</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1654.65799135728</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1412.03298913715</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1187.380070897716</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995626</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625507</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.564984246409</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851162</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068277</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765492</v>
+        <v>391.807784200423</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662231</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>348.1583415064968</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>348.1583415064968</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1423.218307759356</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1423.218307759356</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195803</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.12895776611</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599505</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.9376185581</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311157</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941452</v>
+        <v>5029.390139722815</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260948</v>
+        <v>4809.322912595853</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024422</v>
+        <v>4550.10060991287</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941582</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266807</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.320930072623</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>950.5259710023059</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>787.4147306502863</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>620.4234793474811</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>446.483177755695</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G40" t="n">
-        <v>324.490452308258</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3550304450902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036863</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883288</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170988</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2721.163927303037</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2564.689311047492</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2321.576617072405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.910368771968</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2045.910368771968</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1776.650716804717</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1534.025714584587</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1309.372796345153</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2295.431885919694</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C41" t="n">
-        <v>1860.056165549575</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1426.913133170477</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>995.9051407752295</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.525575257915</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276365</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731038</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3597.243875091816</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3597.243875091816</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O41" t="n">
-        <v>3597.243875091816</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P41" t="n">
-        <v>4060.901860153868</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q41" t="n">
-        <v>4607.400646112463</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865519</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S41" t="n">
-        <v>4776.554710865519</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4559.254236185016</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U41" t="n">
-        <v>4302.79868594849</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V41" t="n">
-        <v>3942.948488328774</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W41" t="n">
-        <v>3540.859786186265</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>3124.484075212034</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2718.964703958144</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917987</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187524</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>222.651836134914</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2667464010979</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.594767377768</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1005.327120044315</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>835.5321609739974</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>672.4209206219778</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>505.4296693191726</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>481.38423538706</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G43" t="n">
-        <v>318.5597128593453</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961774</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547734</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>462.292622098682</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394162</v>
+        <v>881.8088617745613</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722075</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.97978776519</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R43" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S43" t="n">
-        <v>2733.884256702295</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2490.771562727208</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2215.105314426771</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1930.916558743659</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1661.656906776408</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.031904556278</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1194.378986316844</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2505.152997546714</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2069.777277176595</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.634244797497</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>780.525575257915</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276365</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731037</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731037</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>530.7857816702282</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2440.196039881265</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2440.196039881265</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2440.196039881265</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3401.746050073527</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4230.055924906924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865518</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865518</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4695.669589495813</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4478.369114815309</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4221.913564578784</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3862.063366959068</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3459.974664816559</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.598953842327</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2638.079582588438</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086031</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452454</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917987</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187524</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.651836134914</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2667464010979</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731037</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>121.594767377768</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091455</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883662</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>830.201434940598</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C46" t="n">
-        <v>660.4064758702806</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>497.2952355182609</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>406.6068176722644</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>232.6665160804782</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>232.6665160804782</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731037</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731037</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.292622098682</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394162</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722075</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.97978776519</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.233187854124</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2558.758571598579</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2315.645877623492</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2039.979629323055</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.790873639943</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W46" t="n">
-        <v>1486.531221672692</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.906219452562</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y46" t="n">
-        <v>1019.253301213128</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.805895586112</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377826</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,19 +8611,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>224.9470977440209</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>20.72895681335831</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>83.24019622442574</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,16 +9173,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>395.0015281256938</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>103.8611230965907</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>249.1883917578522</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,16 +11066,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>468.3413990525773</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>971.2626365578408</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>287.7001706667563</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.146865729424007</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>52.42554389793268</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>287.2875491876259</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>8.789189859684058</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627255</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627177</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024376</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>160.5740699333186</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>40.42347910947493</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262808</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>207.6239005107498</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600831</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>148.395918983077</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968878</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929902</v>
+        <v>139.5921776627299</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>287.7001706667583</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>75.53980512224045</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024376</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107836</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>69.71657238081411</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>427778.4661057689</v>
+        <v>432005.9069135273</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>427778.4661057689</v>
+        <v>432767.0669288359</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416275.8547724591</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416275.8547724591</v>
+        <v>435192.374065868</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435192.3740658681</v>
+        <v>435192.3740658682</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>436249.5945855778</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>436249.5945855778</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417333.0752921687</v>
+        <v>435192.374065868</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417333.0752921687</v>
+        <v>435192.3740658681</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>522743.6368931482</v>
       </c>
       <c r="E2" t="n">
-        <v>491357.7342884715</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>491357.7342884713</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
         <v>513686.1445339184</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339187</v>
       </c>
       <c r="K2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="L2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>515214.2107678317</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="N2" t="n">
-        <v>515214.2107678316</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="O2" t="n">
-        <v>492885.8005223846</v>
+        <v>513686.1445339183</v>
       </c>
       <c r="P2" t="n">
-        <v>492885.8005223846</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501632</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998262</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932544</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319069</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877264</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622136</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017871</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955546</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26480.73411227665</v>
+        <v>27684.07875020269</v>
       </c>
       <c r="F4" t="n">
-        <v>26480.73411227665</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="J4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020279</v>
       </c>
       <c r="K4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26448,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>30184.23283653128</v>
+        <v>27684.07875020276</v>
       </c>
       <c r="N4" t="n">
-        <v>30184.23283653128</v>
+        <v>27684.07875020272</v>
       </c>
       <c r="O4" t="n">
-        <v>28980.88819860524</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="P4" t="n">
-        <v>28980.88819860524</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800261</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461882</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461882</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663661</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663661</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546291</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.9037354629</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>139695.1616357539</v>
       </c>
       <c r="C6" t="n">
-        <v>281886.4622954638</v>
+        <v>245710.3573945746</v>
       </c>
       <c r="D6" t="n">
-        <v>281886.4622954638</v>
+        <v>306246.2165493881</v>
       </c>
       <c r="E6" t="n">
-        <v>158825.9215583216</v>
+        <v>225905.493617491</v>
       </c>
       <c r="F6" t="n">
-        <v>391666.1235515759</v>
+        <v>408260.6028385406</v>
       </c>
       <c r="G6" t="n">
-        <v>387964.7431547326</v>
+        <v>408260.6028385405</v>
       </c>
       <c r="H6" t="n">
-        <v>408283.8271779232</v>
+        <v>408260.6028385409</v>
       </c>
       <c r="I6" t="n">
-        <v>408283.8271779233</v>
+        <v>408260.6028385405</v>
       </c>
       <c r="J6" t="n">
-        <v>297269.3618329331</v>
+        <v>297246.1374935505</v>
       </c>
       <c r="K6" t="n">
-        <v>408283.8271779233</v>
+        <v>355214.7481997681</v>
       </c>
       <c r="L6" t="n">
-        <v>408283.8271779234</v>
+        <v>398868.3011119185</v>
       </c>
       <c r="M6" t="n">
-        <v>213649.5341128767</v>
+        <v>256060.4319005529</v>
       </c>
       <c r="N6" t="n">
-        <v>407688.7122146637</v>
+        <v>408260.6028385406</v>
       </c>
       <c r="O6" t="n">
-        <v>391071.0085883165</v>
+        <v>408260.6028385405</v>
       </c>
       <c r="P6" t="n">
-        <v>391071.0085883165</v>
+        <v>408260.6028385406</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.272920827789</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.272920827789</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939291</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532315</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140955</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939291</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962754</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939291</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532315</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140955</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>72.71868052833497</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>67.76999178463038</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3319306324442</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>113.8601903713093</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27825,10 +27825,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>125.9611629959791</v>
       </c>
       <c r="U7" t="n">
-        <v>175.4724511961017</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>3.32966510043002</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>101.6465624574853</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>41.91913386107939</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>8.10227316288271e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921993056</v>
+        <v>1.039137308914149e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921993056</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921993056</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921993056</v>
+        <v>-4.901797486430345e-12</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921993056</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.805895586112</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377826</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>224.9470977440209</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>20.72895681335831</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908425</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>83.24019622442574</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,16 +35893,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>395.0015281256938</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956088</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>103.8611230965907</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107371</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175938</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495385003</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>249.1883917578522</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107394</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865519</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732878</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>468.3413990525773</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37856,10 +37856,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107372</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080366</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495385003</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,10 +38026,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>971.2626365578408</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107371</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865519</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175938</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
